--- a/Data_Excel_Bins.xlsx
+++ b/Data_Excel_Bins.xlsx
@@ -15,15 +15,19 @@
     <sheet name="H3. Orientarea pro-activa" sheetId="1" r:id="rId1"/>
     <sheet name="H4.Age" sheetId="4" r:id="rId2"/>
     <sheet name="H5. Domain" sheetId="5" r:id="rId3"/>
-    <sheet name="H1. Performantele financiare " sheetId="2" r:id="rId4"/>
-    <sheet name="H2. Inovativitatea " sheetId="3" r:id="rId5"/>
+    <sheet name="Н6.FinanceEst" sheetId="6" r:id="rId4"/>
+    <sheet name="H1. Performantele financiare " sheetId="2" r:id="rId5"/>
+    <sheet name="H2. Inovativitatea " sheetId="3" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'H5. Domain'!$A$1:$M$149</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>PROACTIVE ORIENTATION [Technologies used are the latest]</t>
   </si>
@@ -98,6 +102,18 @@
   </si>
   <si>
     <t>Transport</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
   </si>
 </sst>
 </file>
@@ -7662,10 +7678,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="K9" sqref="K9:M149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7690,7 +7707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7710,7 +7727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -7730,7 +7747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7750,7 +7767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -7770,7 +7787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -7790,7 +7807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -7810,7 +7827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -7850,7 +7867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -7930,7 +7947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -7950,7 +7967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4</v>
       </c>
@@ -7970,7 +7987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -7990,7 +8007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -8010,7 +8027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -8050,7 +8067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
@@ -8070,7 +8087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -8090,7 +8107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4</v>
       </c>
@@ -8110,7 +8127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
@@ -8170,7 +8187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -8230,7 +8247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -8270,7 +8287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -8290,7 +8307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -8370,7 +8387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -8390,7 +8407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
@@ -8430,7 +8447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2</v>
       </c>
@@ -8470,7 +8487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4</v>
       </c>
@@ -8490,7 +8507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2</v>
       </c>
@@ -8550,7 +8567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -8610,7 +8627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2</v>
       </c>
@@ -8650,7 +8667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4</v>
       </c>
@@ -8670,7 +8687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4</v>
       </c>
@@ -8750,7 +8767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3</v>
       </c>
@@ -8870,7 +8887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1</v>
       </c>
@@ -8930,7 +8947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3</v>
       </c>
@@ -8950,7 +8967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>4</v>
       </c>
@@ -8970,7 +8987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4</v>
       </c>
@@ -8990,7 +9007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2</v>
       </c>
@@ -9030,7 +9047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4</v>
       </c>
@@ -9050,7 +9067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1</v>
       </c>
@@ -9070,7 +9087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2</v>
       </c>
@@ -9090,7 +9107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>3</v>
       </c>
@@ -9110,7 +9127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4</v>
       </c>
@@ -9130,7 +9147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2</v>
       </c>
@@ -9150,7 +9167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>4</v>
       </c>
@@ -9210,7 +9227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4</v>
       </c>
@@ -9230,7 +9247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>3</v>
       </c>
@@ -9250,7 +9267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2</v>
       </c>
@@ -9270,7 +9287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>3</v>
       </c>
@@ -9290,7 +9307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>3</v>
       </c>
@@ -9310,7 +9327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>3</v>
       </c>
@@ -9390,7 +9407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>4</v>
       </c>
@@ -9450,7 +9467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>4</v>
       </c>
@@ -9570,7 +9587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>3</v>
       </c>
@@ -9610,7 +9627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2</v>
       </c>
@@ -9690,7 +9707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1</v>
       </c>
@@ -9710,7 +9727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1</v>
       </c>
@@ -9990,7 +10007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>4</v>
       </c>
@@ -10010,7 +10027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2</v>
       </c>
@@ -10090,7 +10107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>4</v>
       </c>
@@ -10110,7 +10127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1</v>
       </c>
@@ -10290,7 +10307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>3</v>
       </c>
@@ -10310,7 +10327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>4</v>
       </c>
@@ -10330,7 +10347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2</v>
       </c>
@@ -10410,7 +10427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1</v>
       </c>
@@ -10590,7 +10607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>4</v>
       </c>
@@ -10651,16 +10668,5293 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M149">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CJ149"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1">
+        <v>4</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4</v>
+      </c>
+      <c r="O5" s="1">
+        <v>4</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
+      <c r="BP5" s="1"/>
+    </row>
+    <row r="6" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>3</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="1"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="1"/>
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="1"/>
+      <c r="BM6" s="1"/>
+      <c r="BN6" s="1"/>
+      <c r="BO6" s="1"/>
+      <c r="BP6" s="1"/>
+    </row>
+    <row r="7" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <v>4</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>4</v>
+      </c>
+      <c r="M7" s="1">
+        <v>3</v>
+      </c>
+      <c r="N7" s="1">
+        <v>5</v>
+      </c>
+      <c r="O7" s="1">
+        <v>4</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
+      <c r="BN7" s="1"/>
+      <c r="BO7" s="1"/>
+      <c r="BP7" s="1"/>
+    </row>
+    <row r="8" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1">
+        <v>5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+      <c r="M9" s="1">
+        <v>4</v>
+      </c>
+      <c r="N9" s="1">
+        <v>4</v>
+      </c>
+      <c r="O9" s="1">
+        <v>4</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="1"/>
+      <c r="BN9" s="1"/>
+      <c r="BO9" s="1"/>
+      <c r="BP9" s="1"/>
+      <c r="BQ9" s="1"/>
+      <c r="BR9" s="1"/>
+      <c r="BS9" s="1"/>
+      <c r="BT9" s="1"/>
+      <c r="BU9" s="1"/>
+      <c r="BV9" s="1"/>
+      <c r="BW9" s="1"/>
+      <c r="BX9" s="1"/>
+      <c r="BY9" s="1"/>
+      <c r="BZ9" s="1"/>
+      <c r="CA9" s="1"/>
+      <c r="CB9" s="1"/>
+      <c r="CC9" s="1"/>
+      <c r="CD9" s="1"/>
+      <c r="CE9" s="1"/>
+      <c r="CF9" s="1"/>
+      <c r="CG9" s="1"/>
+      <c r="CH9" s="1"/>
+      <c r="CI9" s="1"/>
+      <c r="CJ9" s="1"/>
+    </row>
+    <row r="10" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1">
+        <v>3</v>
+      </c>
+      <c r="N10" s="1">
+        <v>3</v>
+      </c>
+      <c r="O10" s="1">
+        <v>3</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
+      <c r="BI10" s="1"/>
+      <c r="BJ10" s="1"/>
+      <c r="BK10" s="1"/>
+      <c r="BL10" s="1"/>
+      <c r="BM10" s="1"/>
+      <c r="BN10" s="1"/>
+      <c r="BO10" s="1"/>
+      <c r="BP10" s="1"/>
+      <c r="BQ10" s="1"/>
+      <c r="BR10" s="1"/>
+      <c r="BS10" s="1"/>
+      <c r="BT10" s="1"/>
+      <c r="BU10" s="1"/>
+      <c r="BV10" s="1"/>
+      <c r="BW10" s="1"/>
+      <c r="BX10" s="1"/>
+      <c r="BY10" s="1"/>
+      <c r="BZ10" s="1"/>
+      <c r="CA10" s="1"/>
+      <c r="CB10" s="1"/>
+      <c r="CC10" s="1"/>
+      <c r="CD10" s="1"/>
+      <c r="CE10" s="1"/>
+      <c r="CF10" s="1"/>
+      <c r="CG10" s="1"/>
+      <c r="CH10" s="1"/>
+      <c r="CI10" s="1"/>
+      <c r="CJ10" s="1"/>
+    </row>
+    <row r="11" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
+        <v>5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1">
+        <v>4</v>
+      </c>
+      <c r="N11" s="1">
+        <v>5</v>
+      </c>
+      <c r="O11" s="1">
+        <v>5</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="1"/>
+      <c r="BK11" s="1"/>
+      <c r="BL11" s="1"/>
+      <c r="BM11" s="1"/>
+      <c r="BN11" s="1"/>
+      <c r="BO11" s="1"/>
+      <c r="BP11" s="1"/>
+      <c r="BQ11" s="1"/>
+      <c r="BR11" s="1"/>
+      <c r="BS11" s="1"/>
+      <c r="BT11" s="1"/>
+      <c r="BU11" s="1"/>
+      <c r="BV11" s="1"/>
+      <c r="BW11" s="1"/>
+      <c r="BX11" s="1"/>
+      <c r="BY11" s="1"/>
+      <c r="BZ11" s="1"/>
+      <c r="CA11" s="1"/>
+      <c r="CB11" s="1"/>
+      <c r="CC11" s="1"/>
+      <c r="CD11" s="1"/>
+      <c r="CE11" s="1"/>
+      <c r="CF11" s="1"/>
+      <c r="CG11" s="1"/>
+      <c r="CH11" s="1"/>
+      <c r="CI11" s="1"/>
+      <c r="CJ11" s="1"/>
+    </row>
+    <row r="12" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3</v>
+      </c>
+      <c r="N12" s="1">
+        <v>4</v>
+      </c>
+      <c r="O12" s="1">
+        <v>3</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="1"/>
+      <c r="BM12" s="1"/>
+      <c r="BN12" s="1"/>
+      <c r="BO12" s="1"/>
+      <c r="BP12" s="1"/>
+      <c r="BQ12" s="1"/>
+      <c r="BR12" s="1"/>
+      <c r="BS12" s="1"/>
+      <c r="BT12" s="1"/>
+      <c r="BU12" s="1"/>
+      <c r="BV12" s="1"/>
+      <c r="BW12" s="1"/>
+      <c r="BX12" s="1"/>
+      <c r="BY12" s="1"/>
+      <c r="BZ12" s="1"/>
+      <c r="CA12" s="1"/>
+      <c r="CB12" s="1"/>
+      <c r="CC12" s="1"/>
+      <c r="CD12" s="1"/>
+      <c r="CE12" s="1"/>
+      <c r="CF12" s="1"/>
+      <c r="CG12" s="1"/>
+      <c r="CH12" s="1"/>
+      <c r="CI12" s="1"/>
+      <c r="CJ12" s="1"/>
+    </row>
+    <row r="13" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>4</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>5</v>
+      </c>
+      <c r="B21" s="4">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>5</v>
+      </c>
+      <c r="B22" s="4">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4">
+        <v>5</v>
+      </c>
+      <c r="C23" s="4">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>5</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>3</v>
+      </c>
+      <c r="B28" s="4">
+        <v>3</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>3</v>
+      </c>
+      <c r="B29" s="4">
+        <v>5</v>
+      </c>
+      <c r="C29" s="4">
+        <v>5</v>
+      </c>
+      <c r="D29" s="4">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>1</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>2</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>1</v>
+      </c>
+      <c r="B32" s="4">
+        <v>3</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>2</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>5</v>
+      </c>
+      <c r="B34" s="4">
+        <v>5</v>
+      </c>
+      <c r="C34" s="4">
+        <v>5</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>4</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>5</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>3</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>3</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>5</v>
+      </c>
+      <c r="B37" s="4">
+        <v>4</v>
+      </c>
+      <c r="C37" s="4">
+        <v>5</v>
+      </c>
+      <c r="D37" s="4">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37">
+        <v>5</v>
+      </c>
+      <c r="M37">
+        <v>5</v>
+      </c>
+      <c r="N37">
+        <v>5</v>
+      </c>
+      <c r="O37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>2</v>
+      </c>
+      <c r="B38" s="4">
+        <v>5</v>
+      </c>
+      <c r="C38" s="4">
+        <v>4</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <v>4</v>
+      </c>
+      <c r="N38">
+        <v>4</v>
+      </c>
+      <c r="O38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>4</v>
+      </c>
+      <c r="B39" s="4">
+        <v>2</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+      <c r="L39">
+        <v>5</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>1</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>3</v>
+      </c>
+      <c r="B41" s="4">
+        <v>5</v>
+      </c>
+      <c r="C41" s="4">
+        <v>5</v>
+      </c>
+      <c r="D41" s="4">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <v>3</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>1</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>5</v>
+      </c>
+      <c r="B43" s="4">
+        <v>3</v>
+      </c>
+      <c r="C43" s="4">
+        <v>3</v>
+      </c>
+      <c r="D43" s="4">
+        <v>4</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>2</v>
+      </c>
+      <c r="B44" s="4">
+        <v>4</v>
+      </c>
+      <c r="C44" s="4">
+        <v>3</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>5</v>
+      </c>
+      <c r="B45" s="4">
+        <v>5</v>
+      </c>
+      <c r="C45" s="4">
+        <v>5</v>
+      </c>
+      <c r="D45" s="4">
+        <v>4</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>1</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>1</v>
+      </c>
+      <c r="B47" s="4">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4">
+        <v>3</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>5</v>
+      </c>
+      <c r="B48" s="4">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4">
+        <v>4</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>3</v>
+      </c>
+      <c r="B49" s="4">
+        <v>2</v>
+      </c>
+      <c r="C49" s="4">
+        <v>5</v>
+      </c>
+      <c r="D49" s="4">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+      <c r="K49">
+        <v>4</v>
+      </c>
+      <c r="L49">
+        <v>4</v>
+      </c>
+      <c r="M49">
+        <v>3</v>
+      </c>
+      <c r="N49">
+        <v>4</v>
+      </c>
+      <c r="O49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>5</v>
+      </c>
+      <c r="B50" s="4">
+        <v>5</v>
+      </c>
+      <c r="C50" s="4">
+        <v>3</v>
+      </c>
+      <c r="D50" s="4">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>3</v>
+      </c>
+      <c r="B51" s="4">
+        <v>5</v>
+      </c>
+      <c r="C51" s="4">
+        <v>5</v>
+      </c>
+      <c r="D51" s="4">
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>1</v>
+      </c>
+      <c r="B52" s="4">
+        <v>5</v>
+      </c>
+      <c r="C52" s="4">
+        <v>5</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>2</v>
+      </c>
+      <c r="B53" s="4">
+        <v>4</v>
+      </c>
+      <c r="C53" s="4">
+        <v>3</v>
+      </c>
+      <c r="D53" s="4">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>1</v>
+      </c>
+      <c r="B54" s="4">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>1</v>
+      </c>
+      <c r="B55" s="4">
+        <v>1</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>1</v>
+      </c>
+      <c r="B56" s="4">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>3</v>
+      </c>
+      <c r="K56">
+        <v>3</v>
+      </c>
+      <c r="L56">
+        <v>3</v>
+      </c>
+      <c r="M56">
+        <v>3</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>3</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>1</v>
+      </c>
+      <c r="B58" s="4">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4">
+        <v>1</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>1</v>
+      </c>
+      <c r="B59" s="4">
+        <v>1</v>
+      </c>
+      <c r="C59" s="4">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>4</v>
+      </c>
+      <c r="K59">
+        <v>4</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>3</v>
+      </c>
+      <c r="N59">
+        <v>5</v>
+      </c>
+      <c r="O59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>1</v>
+      </c>
+      <c r="B60" s="4">
+        <v>1</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>3</v>
+      </c>
+      <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>4</v>
+      </c>
+      <c r="N60">
+        <v>4</v>
+      </c>
+      <c r="O60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>5</v>
+      </c>
+      <c r="B61" s="4">
+        <v>1</v>
+      </c>
+      <c r="C61" s="4">
+        <v>1</v>
+      </c>
+      <c r="D61" s="4">
+        <v>3</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+      <c r="L61">
+        <v>4</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
+        <v>5</v>
+      </c>
+      <c r="O61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>2</v>
+      </c>
+      <c r="B62" s="4">
+        <v>4</v>
+      </c>
+      <c r="C62" s="4">
+        <v>4</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>3</v>
+      </c>
+      <c r="B63" s="4">
+        <v>5</v>
+      </c>
+      <c r="C63" s="4">
+        <v>2</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>3</v>
+      </c>
+      <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <v>3</v>
+      </c>
+      <c r="M63">
+        <v>3</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>2</v>
+      </c>
+      <c r="B64" s="4">
+        <v>5</v>
+      </c>
+      <c r="C64" s="4">
+        <v>5</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>1</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1</v>
+      </c>
+      <c r="C65" s="4">
+        <v>1</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>3</v>
+      </c>
+      <c r="B66" s="4">
+        <v>5</v>
+      </c>
+      <c r="C66" s="4">
+        <v>3</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>4</v>
+      </c>
+      <c r="K66">
+        <v>4</v>
+      </c>
+      <c r="L66">
+        <v>5</v>
+      </c>
+      <c r="M66">
+        <v>4</v>
+      </c>
+      <c r="N66">
+        <v>4</v>
+      </c>
+      <c r="O66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>1</v>
+      </c>
+      <c r="B67" s="4">
+        <v>5</v>
+      </c>
+      <c r="C67" s="4">
+        <v>3</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>3</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1</v>
+      </c>
+      <c r="C68" s="4">
+        <v>1</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>4</v>
+      </c>
+      <c r="K68">
+        <v>5</v>
+      </c>
+      <c r="L68">
+        <v>4</v>
+      </c>
+      <c r="M68">
+        <v>3</v>
+      </c>
+      <c r="N68">
+        <v>4</v>
+      </c>
+      <c r="O68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>5</v>
+      </c>
+      <c r="B69" s="4">
+        <v>2</v>
+      </c>
+      <c r="C69" s="4">
+        <v>3</v>
+      </c>
+      <c r="D69" s="4">
+        <v>4</v>
+      </c>
+      <c r="J69">
+        <v>3</v>
+      </c>
+      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="L69">
+        <v>4</v>
+      </c>
+      <c r="M69">
+        <v>3</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>2</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1</v>
+      </c>
+      <c r="C70" s="4">
+        <v>1</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>4</v>
+      </c>
+      <c r="K70">
+        <v>4</v>
+      </c>
+      <c r="L70">
+        <v>4</v>
+      </c>
+      <c r="M70">
+        <v>4</v>
+      </c>
+      <c r="N70">
+        <v>4</v>
+      </c>
+      <c r="O70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>1</v>
+      </c>
+      <c r="B71" s="4">
+        <v>1</v>
+      </c>
+      <c r="C71" s="4">
+        <v>1</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+      <c r="O71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>3</v>
+      </c>
+      <c r="B72" s="4">
+        <v>1</v>
+      </c>
+      <c r="C72" s="4">
+        <v>3</v>
+      </c>
+      <c r="D72" s="4">
+        <v>5</v>
+      </c>
+      <c r="J72">
+        <v>4</v>
+      </c>
+      <c r="K72">
+        <v>4</v>
+      </c>
+      <c r="L72">
+        <v>4</v>
+      </c>
+      <c r="M72">
+        <v>4</v>
+      </c>
+      <c r="N72">
+        <v>4</v>
+      </c>
+      <c r="O72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>1</v>
+      </c>
+      <c r="B73" s="4">
+        <v>5</v>
+      </c>
+      <c r="C73" s="4">
+        <v>5</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>1</v>
+      </c>
+      <c r="B74" s="4">
+        <v>1</v>
+      </c>
+      <c r="C74" s="4">
+        <v>5</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>2</v>
+      </c>
+      <c r="K74">
+        <v>3</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <v>3</v>
+      </c>
+      <c r="B75" s="4">
+        <v>5</v>
+      </c>
+      <c r="C75" s="4">
+        <v>5</v>
+      </c>
+      <c r="D75" s="4">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>3</v>
+      </c>
+      <c r="K75">
+        <v>3</v>
+      </c>
+      <c r="L75">
+        <v>3</v>
+      </c>
+      <c r="M75">
+        <v>3</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <v>4</v>
+      </c>
+      <c r="B76" s="4">
+        <v>1</v>
+      </c>
+      <c r="C76" s="4">
+        <v>1</v>
+      </c>
+      <c r="D76" s="4">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>5</v>
+      </c>
+      <c r="K76">
+        <v>5</v>
+      </c>
+      <c r="L76">
+        <v>4</v>
+      </c>
+      <c r="M76">
+        <v>4</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <v>5</v>
+      </c>
+      <c r="B77" s="4">
+        <v>5</v>
+      </c>
+      <c r="C77" s="4">
+        <v>2</v>
+      </c>
+      <c r="D77" s="4">
+        <v>5</v>
+      </c>
+      <c r="J77">
+        <v>3</v>
+      </c>
+      <c r="K77">
+        <v>3</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <v>5</v>
+      </c>
+      <c r="B78" s="4">
+        <v>3</v>
+      </c>
+      <c r="C78" s="4">
+        <v>2</v>
+      </c>
+      <c r="D78" s="4">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>4</v>
+      </c>
+      <c r="K78">
+        <v>4</v>
+      </c>
+      <c r="L78">
+        <v>4</v>
+      </c>
+      <c r="M78">
+        <v>4</v>
+      </c>
+      <c r="N78">
+        <v>4</v>
+      </c>
+      <c r="O78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <v>1</v>
+      </c>
+      <c r="B79" s="4">
+        <v>4</v>
+      </c>
+      <c r="C79" s="4">
+        <v>5</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
+        <v>1</v>
+      </c>
+      <c r="B80" s="4">
+        <v>1</v>
+      </c>
+      <c r="C80" s="4">
+        <v>1</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>3</v>
+      </c>
+      <c r="K80">
+        <v>3</v>
+      </c>
+      <c r="L80">
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+      <c r="N80">
+        <v>4</v>
+      </c>
+      <c r="O80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>1</v>
+      </c>
+      <c r="B81" s="4">
+        <v>1</v>
+      </c>
+      <c r="C81" s="4">
+        <v>1</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>3</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>2</v>
+      </c>
+      <c r="B82" s="4">
+        <v>2</v>
+      </c>
+      <c r="C82" s="4">
+        <v>2</v>
+      </c>
+      <c r="D82" s="4">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <v>2</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>2</v>
+      </c>
+      <c r="N82">
+        <v>3</v>
+      </c>
+      <c r="O82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>1</v>
+      </c>
+      <c r="B83" s="4">
+        <v>1</v>
+      </c>
+      <c r="C83" s="4">
+        <v>5</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>4</v>
+      </c>
+      <c r="K83">
+        <v>3</v>
+      </c>
+      <c r="L83">
+        <v>5</v>
+      </c>
+      <c r="M83">
+        <v>4</v>
+      </c>
+      <c r="N83">
+        <v>5</v>
+      </c>
+      <c r="O83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <v>1</v>
+      </c>
+      <c r="B84" s="4">
+        <v>1</v>
+      </c>
+      <c r="C84" s="4">
+        <v>1</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>2</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
+        <v>3</v>
+      </c>
+      <c r="B85" s="4">
+        <v>5</v>
+      </c>
+      <c r="C85" s="4">
+        <v>4</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <v>1</v>
+      </c>
+      <c r="B86" s="4">
+        <v>1</v>
+      </c>
+      <c r="C86" s="4">
+        <v>1</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>2</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
+        <v>1</v>
+      </c>
+      <c r="B87" s="4">
+        <v>1</v>
+      </c>
+      <c r="C87" s="4">
+        <v>1</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>3</v>
+      </c>
+      <c r="K87">
+        <v>3</v>
+      </c>
+      <c r="L87">
+        <v>3</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <v>1</v>
+      </c>
+      <c r="B88" s="4">
+        <v>1</v>
+      </c>
+      <c r="C88" s="4">
+        <v>1</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>2</v>
+      </c>
+      <c r="B89" s="4">
+        <v>5</v>
+      </c>
+      <c r="C89" s="4">
+        <v>5</v>
+      </c>
+      <c r="D89" s="4">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>2</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>2</v>
+      </c>
+      <c r="B90" s="4">
+        <v>5</v>
+      </c>
+      <c r="C90" s="4">
+        <v>5</v>
+      </c>
+      <c r="D90" s="4">
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <v>4</v>
+      </c>
+      <c r="K90">
+        <v>4</v>
+      </c>
+      <c r="L90">
+        <v>4</v>
+      </c>
+      <c r="M90">
+        <v>4</v>
+      </c>
+      <c r="N90">
+        <v>4</v>
+      </c>
+      <c r="O90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>3</v>
+      </c>
+      <c r="B91" s="4">
+        <v>3</v>
+      </c>
+      <c r="C91" s="4">
+        <v>2</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>2</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>1</v>
+      </c>
+      <c r="B92" s="4">
+        <v>2</v>
+      </c>
+      <c r="C92" s="4">
+        <v>2</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>3</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>3</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <v>3</v>
+      </c>
+      <c r="B93" s="4">
+        <v>4</v>
+      </c>
+      <c r="C93" s="4">
+        <v>3</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>2</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="L93">
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>2</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>5</v>
+      </c>
+      <c r="B94" s="4">
+        <v>3</v>
+      </c>
+      <c r="C94" s="4">
+        <v>2</v>
+      </c>
+      <c r="D94" s="4">
+        <v>2</v>
+      </c>
+      <c r="J94">
+        <v>3</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>4</v>
+      </c>
+      <c r="M94">
+        <v>3</v>
+      </c>
+      <c r="N94">
+        <v>3</v>
+      </c>
+      <c r="O94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
+        <v>2</v>
+      </c>
+      <c r="B95" s="4">
+        <v>1</v>
+      </c>
+      <c r="C95" s="4">
+        <v>1</v>
+      </c>
+      <c r="D95" s="4">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>2</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>2</v>
+      </c>
+      <c r="O95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
+        <v>1</v>
+      </c>
+      <c r="B96" s="4">
+        <v>1</v>
+      </c>
+      <c r="C96" s="4">
+        <v>1</v>
+      </c>
+      <c r="D96" s="4">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+      <c r="K96">
+        <v>3</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
+        <v>1</v>
+      </c>
+      <c r="B97" s="4">
+        <v>1</v>
+      </c>
+      <c r="C97" s="4">
+        <v>1</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>2</v>
+      </c>
+      <c r="K97">
+        <v>3</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
+        <v>1</v>
+      </c>
+      <c r="B98" s="4">
+        <v>1</v>
+      </c>
+      <c r="C98" s="4">
+        <v>1</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>3</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>3</v>
+      </c>
+      <c r="M98">
+        <v>2</v>
+      </c>
+      <c r="N98">
+        <v>3</v>
+      </c>
+      <c r="O98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
+        <v>3</v>
+      </c>
+      <c r="B99" s="4">
+        <v>1</v>
+      </c>
+      <c r="C99" s="4">
+        <v>1</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>2</v>
+      </c>
+      <c r="K99">
+        <v>3</v>
+      </c>
+      <c r="L99">
+        <v>4</v>
+      </c>
+      <c r="M99">
+        <v>3</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <v>2</v>
+      </c>
+      <c r="B100" s="4">
+        <v>1</v>
+      </c>
+      <c r="C100" s="4">
+        <v>1</v>
+      </c>
+      <c r="D100" s="4">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
+        <v>5</v>
+      </c>
+      <c r="B101" s="4">
+        <v>1</v>
+      </c>
+      <c r="C101" s="4">
+        <v>1</v>
+      </c>
+      <c r="D101" s="4">
+        <v>5</v>
+      </c>
+      <c r="J101">
+        <v>4</v>
+      </c>
+      <c r="K101">
+        <v>3</v>
+      </c>
+      <c r="L101">
+        <v>4</v>
+      </c>
+      <c r="M101">
+        <v>3</v>
+      </c>
+      <c r="N101">
+        <v>4</v>
+      </c>
+      <c r="O101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
+        <v>1</v>
+      </c>
+      <c r="B102" s="4">
+        <v>1</v>
+      </c>
+      <c r="C102" s="4">
+        <v>1</v>
+      </c>
+      <c r="D102" s="4">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>5</v>
+      </c>
+      <c r="K102">
+        <v>5</v>
+      </c>
+      <c r="L102">
+        <v>5</v>
+      </c>
+      <c r="M102">
+        <v>5</v>
+      </c>
+      <c r="N102">
+        <v>5</v>
+      </c>
+      <c r="O102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
+        <v>1</v>
+      </c>
+      <c r="B103" s="4">
+        <v>1</v>
+      </c>
+      <c r="C103" s="4">
+        <v>5</v>
+      </c>
+      <c r="D103" s="4">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>2</v>
+      </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
+      <c r="L103">
+        <v>3</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="O103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
+        <v>1</v>
+      </c>
+      <c r="B104" s="4">
+        <v>1</v>
+      </c>
+      <c r="C104" s="4">
+        <v>1</v>
+      </c>
+      <c r="D104" s="4">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>4</v>
+      </c>
+      <c r="K104">
+        <v>4</v>
+      </c>
+      <c r="L104">
+        <v>3</v>
+      </c>
+      <c r="M104">
+        <v>5</v>
+      </c>
+      <c r="N104">
+        <v>4</v>
+      </c>
+      <c r="O104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
+        <v>3</v>
+      </c>
+      <c r="B105" s="4">
+        <v>1</v>
+      </c>
+      <c r="C105" s="4">
+        <v>1</v>
+      </c>
+      <c r="D105" s="4">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>4</v>
+      </c>
+      <c r="K105">
+        <v>4</v>
+      </c>
+      <c r="L105">
+        <v>4</v>
+      </c>
+      <c r="M105">
+        <v>4</v>
+      </c>
+      <c r="N105">
+        <v>4</v>
+      </c>
+      <c r="O105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
+        <v>4</v>
+      </c>
+      <c r="B106" s="4">
+        <v>5</v>
+      </c>
+      <c r="C106" s="4">
+        <v>5</v>
+      </c>
+      <c r="D106" s="4">
+        <v>2</v>
+      </c>
+      <c r="J106">
+        <v>3</v>
+      </c>
+      <c r="K106">
+        <v>3</v>
+      </c>
+      <c r="L106">
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <v>3</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
+        <v>1</v>
+      </c>
+      <c r="B107" s="4">
+        <v>5</v>
+      </c>
+      <c r="C107" s="4">
+        <v>3</v>
+      </c>
+      <c r="D107" s="4">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>4</v>
+      </c>
+      <c r="K107">
+        <v>3</v>
+      </c>
+      <c r="L107">
+        <v>4</v>
+      </c>
+      <c r="M107">
+        <v>4</v>
+      </c>
+      <c r="N107">
+        <v>4</v>
+      </c>
+      <c r="O107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" s="4">
+        <v>3</v>
+      </c>
+      <c r="B108" s="4">
+        <v>1</v>
+      </c>
+      <c r="C108" s="4">
+        <v>1</v>
+      </c>
+      <c r="D108" s="4">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>3</v>
+      </c>
+      <c r="K108">
+        <v>3</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" s="4">
+        <v>1</v>
+      </c>
+      <c r="B109" s="4">
+        <v>1</v>
+      </c>
+      <c r="C109" s="4">
+        <v>1</v>
+      </c>
+      <c r="D109" s="4">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" s="4">
+        <v>5</v>
+      </c>
+      <c r="B110" s="4">
+        <v>3</v>
+      </c>
+      <c r="C110" s="4">
+        <v>5</v>
+      </c>
+      <c r="D110" s="4">
+        <v>5</v>
+      </c>
+      <c r="J110">
+        <v>4</v>
+      </c>
+      <c r="K110">
+        <v>3</v>
+      </c>
+      <c r="L110">
+        <v>4</v>
+      </c>
+      <c r="M110">
+        <v>3</v>
+      </c>
+      <c r="N110">
+        <v>3</v>
+      </c>
+      <c r="O110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" s="4">
+        <v>4</v>
+      </c>
+      <c r="B111" s="4">
+        <v>5</v>
+      </c>
+      <c r="C111" s="4">
+        <v>5</v>
+      </c>
+      <c r="D111" s="4">
+        <v>2</v>
+      </c>
+      <c r="J111">
+        <v>2</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>2</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
+        <v>2</v>
+      </c>
+      <c r="B112" s="4">
+        <v>1</v>
+      </c>
+      <c r="C112" s="4">
+        <v>1</v>
+      </c>
+      <c r="D112" s="4">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>2</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>2</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>2</v>
+      </c>
+      <c r="O112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A113" s="4">
+        <v>2</v>
+      </c>
+      <c r="B113" s="4">
+        <v>1</v>
+      </c>
+      <c r="C113" s="4">
+        <v>1</v>
+      </c>
+      <c r="D113" s="4">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>4</v>
+      </c>
+      <c r="K113">
+        <v>4</v>
+      </c>
+      <c r="L113">
+        <v>4</v>
+      </c>
+      <c r="M113">
+        <v>4</v>
+      </c>
+      <c r="N113">
+        <v>4</v>
+      </c>
+      <c r="O113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A114" s="4">
+        <v>2</v>
+      </c>
+      <c r="B114" s="4">
+        <v>5</v>
+      </c>
+      <c r="C114" s="4">
+        <v>3</v>
+      </c>
+      <c r="D114" s="4">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>2</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A115" s="4">
+        <v>1</v>
+      </c>
+      <c r="B115" s="4">
+        <v>5</v>
+      </c>
+      <c r="C115" s="4">
+        <v>2</v>
+      </c>
+      <c r="D115" s="4">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A116" s="4">
+        <v>1</v>
+      </c>
+      <c r="B116" s="4">
+        <v>1</v>
+      </c>
+      <c r="C116" s="4">
+        <v>1</v>
+      </c>
+      <c r="D116" s="4">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>3</v>
+      </c>
+      <c r="K116">
+        <v>3</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>3</v>
+      </c>
+      <c r="O116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A117" s="4">
+        <v>2</v>
+      </c>
+      <c r="B117" s="4">
+        <v>5</v>
+      </c>
+      <c r="C117" s="4">
+        <v>5</v>
+      </c>
+      <c r="D117" s="4">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>2</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+      <c r="O117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A118" s="4">
+        <v>1</v>
+      </c>
+      <c r="B118" s="4">
+        <v>5</v>
+      </c>
+      <c r="C118" s="4">
+        <v>5</v>
+      </c>
+      <c r="D118" s="4">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>2</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A119" s="4">
+        <v>2</v>
+      </c>
+      <c r="B119" s="4">
+        <v>1</v>
+      </c>
+      <c r="C119" s="4">
+        <v>1</v>
+      </c>
+      <c r="D119" s="4">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>2</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>2</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A120" s="4">
+        <v>2</v>
+      </c>
+      <c r="B120" s="4">
+        <v>2</v>
+      </c>
+      <c r="C120" s="4">
+        <v>3</v>
+      </c>
+      <c r="D120" s="4">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>5</v>
+      </c>
+      <c r="K120">
+        <v>5</v>
+      </c>
+      <c r="L120">
+        <v>5</v>
+      </c>
+      <c r="M120">
+        <v>5</v>
+      </c>
+      <c r="N120">
+        <v>5</v>
+      </c>
+      <c r="O120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A121" s="4">
+        <v>2</v>
+      </c>
+      <c r="B121" s="4">
+        <v>1</v>
+      </c>
+      <c r="C121" s="4">
+        <v>1</v>
+      </c>
+      <c r="D121" s="4">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>3</v>
+      </c>
+      <c r="K121">
+        <v>4</v>
+      </c>
+      <c r="L121">
+        <v>3</v>
+      </c>
+      <c r="M121">
+        <v>2</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A122" s="4">
+        <v>1</v>
+      </c>
+      <c r="B122" s="4">
+        <v>1</v>
+      </c>
+      <c r="C122" s="4">
+        <v>1</v>
+      </c>
+      <c r="D122" s="4">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>2</v>
+      </c>
+      <c r="K122">
+        <v>3</v>
+      </c>
+      <c r="L122">
+        <v>3</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A123" s="4">
+        <v>1</v>
+      </c>
+      <c r="B123" s="4">
+        <v>1</v>
+      </c>
+      <c r="C123" s="4">
+        <v>1</v>
+      </c>
+      <c r="D123" s="4">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>4</v>
+      </c>
+      <c r="K123">
+        <v>4</v>
+      </c>
+      <c r="L123">
+        <v>3</v>
+      </c>
+      <c r="M123">
+        <v>4</v>
+      </c>
+      <c r="N123">
+        <v>5</v>
+      </c>
+      <c r="O123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A124" s="4">
+        <v>3</v>
+      </c>
+      <c r="B124" s="4">
+        <v>1</v>
+      </c>
+      <c r="C124" s="4">
+        <v>1</v>
+      </c>
+      <c r="D124" s="4">
+        <v>2</v>
+      </c>
+      <c r="J124">
+        <v>4</v>
+      </c>
+      <c r="K124">
+        <v>4</v>
+      </c>
+      <c r="L124">
+        <v>4</v>
+      </c>
+      <c r="M124">
+        <v>4</v>
+      </c>
+      <c r="N124">
+        <v>4</v>
+      </c>
+      <c r="O124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A125" s="4">
+        <v>4</v>
+      </c>
+      <c r="B125" s="4">
+        <v>1</v>
+      </c>
+      <c r="C125" s="4">
+        <v>1</v>
+      </c>
+      <c r="D125" s="4">
+        <v>2</v>
+      </c>
+      <c r="J125">
+        <v>2</v>
+      </c>
+      <c r="K125">
+        <v>3</v>
+      </c>
+      <c r="L125">
+        <v>3</v>
+      </c>
+      <c r="M125">
+        <v>2</v>
+      </c>
+      <c r="N125">
+        <v>3</v>
+      </c>
+      <c r="O125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A126" s="4">
+        <v>5</v>
+      </c>
+      <c r="B126" s="4">
+        <v>1</v>
+      </c>
+      <c r="C126" s="4">
+        <v>1</v>
+      </c>
+      <c r="D126" s="4">
+        <v>2</v>
+      </c>
+      <c r="J126">
+        <v>3</v>
+      </c>
+      <c r="K126">
+        <v>3</v>
+      </c>
+      <c r="L126">
+        <v>3</v>
+      </c>
+      <c r="M126">
+        <v>3</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A127" s="4">
+        <v>4</v>
+      </c>
+      <c r="B127" s="4">
+        <v>1</v>
+      </c>
+      <c r="C127" s="4">
+        <v>1</v>
+      </c>
+      <c r="D127" s="4">
+        <v>2</v>
+      </c>
+      <c r="J127">
+        <v>3</v>
+      </c>
+      <c r="K127">
+        <v>3</v>
+      </c>
+      <c r="L127">
+        <v>3</v>
+      </c>
+      <c r="M127">
+        <v>3</v>
+      </c>
+      <c r="N127">
+        <v>5</v>
+      </c>
+      <c r="O127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A128" s="4">
+        <v>3</v>
+      </c>
+      <c r="B128" s="4">
+        <v>5</v>
+      </c>
+      <c r="C128" s="4">
+        <v>5</v>
+      </c>
+      <c r="D128" s="4">
+        <v>2</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A129" s="4">
+        <v>3</v>
+      </c>
+      <c r="B129" s="4">
+        <v>1</v>
+      </c>
+      <c r="C129" s="4">
+        <v>1</v>
+      </c>
+      <c r="D129" s="4">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>4</v>
+      </c>
+      <c r="K129">
+        <v>3</v>
+      </c>
+      <c r="L129">
+        <v>4</v>
+      </c>
+      <c r="M129">
+        <v>4</v>
+      </c>
+      <c r="N129">
+        <v>4</v>
+      </c>
+      <c r="O129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A130" s="4">
+        <v>3</v>
+      </c>
+      <c r="B130" s="4">
+        <v>3</v>
+      </c>
+      <c r="C130" s="4">
+        <v>2</v>
+      </c>
+      <c r="D130" s="4">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>2</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
+        <v>2</v>
+      </c>
+      <c r="O130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A131" s="4">
+        <v>3</v>
+      </c>
+      <c r="B131" s="4">
+        <v>2</v>
+      </c>
+      <c r="C131" s="4">
+        <v>1</v>
+      </c>
+      <c r="D131" s="4">
+        <v>2</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A132" s="4">
+        <v>1</v>
+      </c>
+      <c r="B132" s="4">
+        <v>1</v>
+      </c>
+      <c r="C132" s="4">
+        <v>1</v>
+      </c>
+      <c r="D132" s="4">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>2</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+      <c r="O132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A133" s="4">
+        <v>1</v>
+      </c>
+      <c r="B133" s="4">
+        <v>1</v>
+      </c>
+      <c r="C133" s="4">
+        <v>1</v>
+      </c>
+      <c r="D133" s="4">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>4</v>
+      </c>
+      <c r="K133">
+        <v>5</v>
+      </c>
+      <c r="L133">
+        <v>3</v>
+      </c>
+      <c r="M133">
+        <v>5</v>
+      </c>
+      <c r="N133">
+        <v>5</v>
+      </c>
+      <c r="O133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A134" s="4">
+        <v>3</v>
+      </c>
+      <c r="B134" s="4">
+        <v>5</v>
+      </c>
+      <c r="C134" s="4">
+        <v>2</v>
+      </c>
+      <c r="D134" s="4">
+        <v>2</v>
+      </c>
+      <c r="J134">
+        <v>3</v>
+      </c>
+      <c r="K134">
+        <v>3</v>
+      </c>
+      <c r="L134">
+        <v>3</v>
+      </c>
+      <c r="M134">
+        <v>3</v>
+      </c>
+      <c r="N134">
+        <v>3</v>
+      </c>
+      <c r="O134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A135" s="4">
+        <v>1</v>
+      </c>
+      <c r="B135" s="4">
+        <v>1</v>
+      </c>
+      <c r="C135" s="4">
+        <v>1</v>
+      </c>
+      <c r="D135" s="4">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>3</v>
+      </c>
+      <c r="K135">
+        <v>3</v>
+      </c>
+      <c r="L135">
+        <v>3</v>
+      </c>
+      <c r="M135">
+        <v>3</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A136" s="4">
+        <v>3</v>
+      </c>
+      <c r="B136" s="4">
+        <v>1</v>
+      </c>
+      <c r="C136" s="4">
+        <v>1</v>
+      </c>
+      <c r="D136" s="4">
+        <v>2</v>
+      </c>
+      <c r="J136">
+        <v>2</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>2</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A137" s="4">
+        <v>3</v>
+      </c>
+      <c r="B137" s="4">
+        <v>2</v>
+      </c>
+      <c r="C137" s="4">
+        <v>1</v>
+      </c>
+      <c r="D137" s="4">
+        <v>2</v>
+      </c>
+      <c r="J137">
+        <v>4</v>
+      </c>
+      <c r="K137">
+        <v>4</v>
+      </c>
+      <c r="L137">
+        <v>4</v>
+      </c>
+      <c r="M137">
+        <v>3</v>
+      </c>
+      <c r="N137">
+        <v>4</v>
+      </c>
+      <c r="O137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A138" s="4">
+        <v>5</v>
+      </c>
+      <c r="B138" s="4">
+        <v>1</v>
+      </c>
+      <c r="C138" s="4">
+        <v>1</v>
+      </c>
+      <c r="D138" s="4">
+        <v>5</v>
+      </c>
+      <c r="J138">
+        <v>2</v>
+      </c>
+      <c r="K138">
+        <v>2</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>2</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A139" s="4">
+        <v>2</v>
+      </c>
+      <c r="B139" s="4">
+        <v>1</v>
+      </c>
+      <c r="C139" s="4">
+        <v>1</v>
+      </c>
+      <c r="D139" s="4">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>2</v>
+      </c>
+      <c r="K139">
+        <v>2</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A140" s="4">
+        <v>1</v>
+      </c>
+      <c r="B140" s="4">
+        <v>3</v>
+      </c>
+      <c r="C140" s="4">
+        <v>2</v>
+      </c>
+      <c r="D140" s="4">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>2</v>
+      </c>
+      <c r="K140">
+        <v>2</v>
+      </c>
+      <c r="L140">
+        <v>2</v>
+      </c>
+      <c r="M140">
+        <v>2</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="O140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A141" s="4">
+        <v>4</v>
+      </c>
+      <c r="B141" s="4">
+        <v>1</v>
+      </c>
+      <c r="C141" s="4">
+        <v>1</v>
+      </c>
+      <c r="D141" s="4">
+        <v>2</v>
+      </c>
+      <c r="J141">
+        <v>3</v>
+      </c>
+      <c r="K141">
+        <v>3</v>
+      </c>
+      <c r="L141">
+        <v>4</v>
+      </c>
+      <c r="M141">
+        <v>3</v>
+      </c>
+      <c r="N141">
+        <v>4</v>
+      </c>
+      <c r="O141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A142" s="4">
+        <v>1</v>
+      </c>
+      <c r="B142" s="4">
+        <v>1</v>
+      </c>
+      <c r="C142" s="4">
+        <v>1</v>
+      </c>
+      <c r="D142" s="4">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>2</v>
+      </c>
+      <c r="L142">
+        <v>2</v>
+      </c>
+      <c r="M142">
+        <v>2</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A143" s="4">
+        <v>4</v>
+      </c>
+      <c r="B143" s="4">
+        <v>1</v>
+      </c>
+      <c r="C143" s="4">
+        <v>1</v>
+      </c>
+      <c r="D143" s="4">
+        <v>3</v>
+      </c>
+      <c r="J143">
+        <v>2</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143">
+        <v>2</v>
+      </c>
+      <c r="O143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A144" s="4">
+        <v>5</v>
+      </c>
+      <c r="B144" s="4">
+        <v>5</v>
+      </c>
+      <c r="C144" s="4">
+        <v>5</v>
+      </c>
+      <c r="D144" s="4">
+        <v>4</v>
+      </c>
+      <c r="J144">
+        <v>3</v>
+      </c>
+      <c r="K144">
+        <v>2</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="N144">
+        <v>2</v>
+      </c>
+      <c r="O144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A145" s="4">
+        <v>3</v>
+      </c>
+      <c r="B145" s="4">
+        <v>1</v>
+      </c>
+      <c r="C145" s="4">
+        <v>1</v>
+      </c>
+      <c r="D145" s="4">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>2</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145">
+        <v>2</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A146" s="4">
+        <v>1</v>
+      </c>
+      <c r="B146" s="4">
+        <v>4</v>
+      </c>
+      <c r="C146" s="4">
+        <v>5</v>
+      </c>
+      <c r="D146" s="4">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A147" s="4">
+        <v>2</v>
+      </c>
+      <c r="B147" s="4">
+        <v>1</v>
+      </c>
+      <c r="C147" s="4">
+        <v>1</v>
+      </c>
+      <c r="D147" s="4">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>2</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147">
+        <v>3</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A148" s="4">
+        <v>3</v>
+      </c>
+      <c r="B148" s="4">
+        <v>1</v>
+      </c>
+      <c r="C148" s="4">
+        <v>1</v>
+      </c>
+      <c r="D148" s="4">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A149" s="4">
+        <v>2</v>
+      </c>
+      <c r="B149" s="4">
+        <v>5</v>
+      </c>
+      <c r="C149" s="4">
+        <v>2</v>
+      </c>
+      <c r="D149" s="4">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>2</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149">
+        <v>2</v>
+      </c>
+      <c r="O149">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:H149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17196,7 +22490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1000"/>
   <sheetViews>

--- a/Data_Excel_Bins.xlsx
+++ b/Data_Excel_Bins.xlsx
@@ -390,7 +390,7 @@
   <dimension ref="A1:V149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
